--- a/results/I3_N5_M2_T15_C150_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1621.545728881412</v>
+        <v>325.9596863901649</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07199978828430176</v>
+        <v>0.03800010681152344</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.866360451742877e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.44590858474082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.741951075243185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1290.330000000745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>309.96</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -791,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -863,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.95990767142879</v>
+        <v>3.695361957914272</v>
       </c>
     </row>
     <row r="4">
@@ -887,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.20936104460228</v>
+        <v>7.44590858474082</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.720264823079315</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>279.0330000000615</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>43.19900000001095</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>126.0459999999505</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>150.5910000000155</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>83.34899999997829</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>126.0459999999362</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>279.0330000000752</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>129.0330000000745</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="3">
@@ -1220,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.743</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1242,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.278</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1253,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>15.975</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1292,28 +1253,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
